--- a/Proyecto/South Korea/Cumulative number of tests 160420.xlsx
+++ b/Proyecto/South Korea/Cumulative number of tests 160420.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Documentos\Cuarto Semestre\Estadistica\Proyecto\South Korea\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -348,11 +352,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -371,16 +378,21 @@
       <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -395,139 +407,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0"/>
-    <cellStyle name="Percent" xfId="15"/>
-    <cellStyle name="Currency" xfId="16"/>
-    <cellStyle name="Currency [0]" xfId="17"/>
-    <cellStyle name="Comma" xfId="18"/>
-    <cellStyle name="Comma [0]" xfId="19"/>
+    <cellStyle name="Comma" xfId="4"/>
+    <cellStyle name="Comma [0]" xfId="5"/>
+    <cellStyle name="Currency" xfId="2"/>
+    <cellStyle name="Currency [0]" xfId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -850,153 +781,1722 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="B3:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J208"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="70.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="12.75">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="12.75">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="12.75">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="12.75">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="12.75">
-      <c r="E9" s="6" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" ht="12.75">
-      <c r="B10" s="2" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" ht="12.75">
-      <c r="B11" s="2" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" ht="12.75">
-      <c r="B12" s="2" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" ht="12.75">
-      <c r="B13" s="2" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" ht="12.75">
-      <c r="B14" s="2" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" ht="12.75">
-      <c r="B15" s="2" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" ht="12.75">
-      <c r="B16" s="2" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="12.75">
-      <c r="B17" s="2" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="12.75">
-      <c r="B18" s="5" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" ht="12.75">
-      <c r="B20" s="1" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" ht="12.75">
-      <c r="B22" s="2" t="s">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" ht="12.75">
-      <c r="B23" s="2" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" ht="12.75">
-      <c r="B24" s="2" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" ht="12.75">
-      <c r="B25" s="2" t="s">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+    </row>
+    <row r="119" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+    </row>
+    <row r="120" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+    </row>
+    <row r="123" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+    </row>
+    <row r="124" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+    </row>
+    <row r="125" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+    </row>
+    <row r="126" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+    </row>
+    <row r="127" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+    </row>
+    <row r="129" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+    </row>
+    <row r="130" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+    </row>
+    <row r="131" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+    </row>
+    <row r="132" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+    </row>
+    <row r="133" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+    </row>
+    <row r="135" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+    </row>
+    <row r="136" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+    </row>
+    <row r="137" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+    </row>
+    <row r="138" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+    </row>
+    <row r="139" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+    </row>
+    <row r="140" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+    </row>
+    <row r="141" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+    </row>
+    <row r="142" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+    </row>
+    <row r="143" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+    </row>
+    <row r="144" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+    </row>
+    <row r="145" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+    </row>
+    <row r="146" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+    </row>
+    <row r="147" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+    </row>
+    <row r="148" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+    </row>
+    <row r="149" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+    </row>
+    <row r="150" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+    </row>
+    <row r="151" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+    </row>
+    <row r="152" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+    </row>
+    <row r="153" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+    </row>
+    <row r="154" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+    </row>
+    <row r="155" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+    </row>
+    <row r="156" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+    </row>
+    <row r="157" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+    </row>
+    <row r="158" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+    </row>
+    <row r="159" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+    </row>
+    <row r="160" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+    </row>
+    <row r="161" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+    </row>
+    <row r="162" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+    </row>
+    <row r="163" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+    </row>
+    <row r="164" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+    </row>
+    <row r="165" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+    </row>
+    <row r="166" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+    </row>
+    <row r="167" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+    </row>
+    <row r="168" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+    </row>
+    <row r="169" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+    </row>
+    <row r="170" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+    </row>
+    <row r="171" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+    </row>
+    <row r="172" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+    </row>
+    <row r="173" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+    </row>
+    <row r="174" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+    </row>
+    <row r="175" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+    </row>
+    <row r="176" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+    </row>
+    <row r="177" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+    </row>
+    <row r="178" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+    </row>
+    <row r="179" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+    </row>
+    <row r="180" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+    </row>
+    <row r="181" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+    </row>
+    <row r="182" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+    </row>
+    <row r="183" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+    </row>
+    <row r="184" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+    </row>
+    <row r="185" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+    </row>
+    <row r="186" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+    </row>
+    <row r="187" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+    </row>
+    <row r="188" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+    </row>
+    <row r="189" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+    </row>
+    <row r="190" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+    </row>
+    <row r="191" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+    </row>
+    <row r="192" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+    </row>
+    <row r="193" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+    </row>
+    <row r="194" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+    </row>
+    <row r="195" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+    </row>
+    <row r="196" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+    </row>
+    <row r="197" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+    </row>
+    <row r="198" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+    </row>
+    <row r="199" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+    </row>
+    <row r="200" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+    </row>
+    <row r="201" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+    </row>
+    <row r="202" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+    </row>
+    <row r="203" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+    </row>
+    <row r="204" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+    </row>
+    <row r="205" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+    </row>
+    <row r="206" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+    </row>
+    <row r="207" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+    </row>
+    <row r="208" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1004,7 +2504,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" location="Data!A1" display="Access data"/>
-    <hyperlink ref="C25" r:id="rId1" display="1102818"/>
+    <hyperlink ref="C25" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -1012,665 +2512,986 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D85"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="100.714285714286" customWidth="1"/>
-    <col min="3" max="3" width="7.85714285714286" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="12.75">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" ht="12.75">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="12.75">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="12.75">
-      <c r="B7" s="2" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>116</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="12.75">
-      <c r="B8" s="2" t="s">
+      <c r="D7">
+        <f>D6+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>187</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="12.75">
-      <c r="B9" s="2" t="s">
+      <c r="D8">
+        <f t="shared" ref="D8:D71" si="0">D7+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>244</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="12.75">
-      <c r="B10" s="2" t="s">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>371</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="12.75">
-      <c r="B11" s="2" t="s">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>429</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="12.75">
-      <c r="B12" s="2" t="s">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>490</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="12.75">
-      <c r="B13" s="2" t="s">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="9">
         <v>607</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="12.75">
-      <c r="B14" s="2" t="s">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>714</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" ht="12.75">
-      <c r="B15" s="2" t="s">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="9">
         <v>885</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" ht="12.75">
-      <c r="B16" s="2" t="s">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>1352</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="12.75">
-      <c r="B17" s="2" t="s">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="9">
         <v>2097</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="12.75">
-      <c r="B18" s="2" t="s">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>2598</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="12.75">
-      <c r="B19" s="2" t="s">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="9">
         <v>3110</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="12.75">
-      <c r="B20" s="2" t="s">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="9">
         <v>4325</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" ht="12.75">
-      <c r="B21" s="2" t="s">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="9">
         <v>5624</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="12.75">
-      <c r="B22" s="2" t="s">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="9">
         <v>6511</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="12.75">
-      <c r="B23" s="2" t="s">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <v>7242</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" ht="12.75">
-      <c r="B24" s="2" t="s">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="9">
         <v>7734</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" ht="12.75">
-      <c r="B25" s="2" t="s">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="9">
         <v>8161</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" ht="12.75">
-      <c r="B26" s="2" t="s">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="9">
         <v>8718</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" ht="12.75">
-      <c r="B27" s="2" t="s">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="9">
         <v>9772</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" ht="12.75">
-      <c r="B28" s="2" t="s">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="9">
         <v>11173</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" ht="12.75">
-      <c r="B29" s="2" t="s">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="9">
         <v>13202</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" ht="12.75">
-      <c r="B30" s="2" t="s">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="9">
         <v>16400</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" ht="12.75">
-      <c r="B31" s="2" t="s">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="9">
         <v>21586</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" ht="12.75">
-      <c r="B32" s="2" t="s">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <v>26179</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" ht="12.75">
-      <c r="B33" s="2" t="s">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="9">
         <v>32756</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" ht="12.75">
-      <c r="B34" s="2" t="s">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="9">
         <v>40304</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" ht="12.75">
-      <c r="B35" s="2" t="s">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="9">
         <v>53553</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" ht="12.75">
-      <c r="B36" s="2" t="s">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="9">
         <v>66652</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" ht="12.75">
-      <c r="B37" s="2" t="s">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="9">
         <v>81167</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" ht="12.75">
-      <c r="B38" s="2" t="s">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="9">
         <v>94055</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" ht="12.75">
-      <c r="B39" s="2" t="s">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="9">
         <v>98921</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" ht="12.75">
-      <c r="B40" s="2" t="s">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="9">
         <v>109591</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" ht="12.75">
-      <c r="B41" s="2" t="s">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="9">
         <v>125851</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" ht="12.75">
-      <c r="B42" s="2" t="s">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="9">
         <v>136707</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" ht="12.75">
-      <c r="B43" s="2" t="s">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="9">
         <v>146541</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" ht="12.75">
-      <c r="B44" s="2" t="s">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="9">
         <v>164740</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" ht="12.75">
-      <c r="B45" s="2" t="s">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="9">
         <v>178189</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" ht="12.75">
-      <c r="B46" s="2" t="s">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="9">
         <v>188518</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" ht="12.75">
-      <c r="B47" s="2" t="s">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="9">
         <v>196618</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" ht="12.75">
-      <c r="B48" s="2" t="s">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="9">
         <v>210144</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" ht="12.75">
-      <c r="B49" s="2" t="s">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="9">
         <v>222395</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" ht="12.75">
-      <c r="B50" s="2" t="s">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="9">
         <v>234998</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" ht="12.75">
-      <c r="B51" s="2" t="s">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="9">
         <v>248647</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" ht="12.75">
-      <c r="B52" s="2" t="s">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="9">
         <v>261335</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" ht="12.75">
-      <c r="B53" s="2" t="s">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="9">
         <v>268212</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" ht="12.75">
-      <c r="B54" s="2" t="s">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="9">
         <v>274504</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" ht="12.75">
-      <c r="B55" s="2" t="s">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="9">
         <v>286716</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" ht="12.75">
-      <c r="B56" s="2" t="s">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="9">
         <v>295647</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" ht="12.75">
-      <c r="B57" s="2" t="s">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="9">
         <v>307024</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" ht="12.75">
-      <c r="B58" s="2" t="s">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="9">
         <v>316664</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" ht="12.75">
-      <c r="B59" s="2" t="s">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="9">
         <v>327509</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" ht="12.75">
-      <c r="B60" s="2" t="s">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="9">
         <v>331780</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" ht="12.75">
-      <c r="B61" s="2" t="s">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="9">
         <v>338036</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" ht="12.75">
-      <c r="B62" s="2" t="s">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="9">
         <v>348582</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" ht="12.75">
-      <c r="B63" s="2" t="s">
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="9">
         <v>357896</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" ht="12.75">
-      <c r="B64" s="2" t="s">
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="9">
         <v>364942</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" ht="12.75">
-      <c r="B65" s="2" t="s">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="9">
         <v>376961</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" ht="12.75">
-      <c r="B66" s="2" t="s">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="9">
         <v>387925</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" ht="12.75">
-      <c r="B67" s="2" t="s">
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="9">
         <v>394141</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" ht="12.75">
-      <c r="B68" s="2" t="s">
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="9">
         <v>395194</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" ht="12.75">
-      <c r="B69" s="2" t="s">
+      <c r="D68">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="9">
         <v>410564</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" ht="12.75">
-      <c r="B70" s="2" t="s">
+      <c r="D69">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="9">
         <v>421547</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" ht="12.75">
-      <c r="B71" s="2" t="s">
+      <c r="D70">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="9">
         <v>431743</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" ht="12.75">
-      <c r="B72" s="2" t="s">
+      <c r="D71">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="9">
         <v>443273</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" ht="12.75">
-      <c r="B73" s="2" t="s">
+      <c r="D72">
+        <f t="shared" ref="D72:D85" si="1">D71+1</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="9">
         <v>455032</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" ht="12.75">
-      <c r="B74" s="2" t="s">
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="9">
         <v>461233</v>
       </c>
-    </row>
-    <row r="75" spans="2:4" ht="12.75">
-      <c r="B75" s="2" t="s">
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="9">
         <v>466804</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" ht="12.75">
-      <c r="B76" s="2" t="s">
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="9">
         <v>477304</v>
       </c>
-    </row>
-    <row r="77" spans="2:4" ht="12.75">
-      <c r="B77" s="2" t="s">
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="9">
         <v>486003</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" ht="12.75">
-      <c r="B78" s="2" t="s">
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="9">
         <v>494711</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" ht="12.75">
-      <c r="B79" s="2" t="s">
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="9">
         <v>503051</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" ht="12.75">
-      <c r="B80" s="2" t="s">
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="9">
         <v>510479</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" ht="12.75">
-      <c r="B81" s="2" t="s">
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="9">
         <v>514621</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" ht="12.75">
-      <c r="B82" s="2" t="s">
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="9">
         <v>518743</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" ht="12.75">
-      <c r="B83" s="2" t="s">
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="9">
         <v>527438</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" ht="12.75">
-      <c r="B84" s="2" t="s">
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="9">
         <v>534552</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" ht="12.75">
-      <c r="B85" s="2" t="s">
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="9">
         <v>538775</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
